--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razav\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Munca_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7B78DE-9AD2-42CB-BFD3-D122AA390ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660692EA-AFF9-4778-ADB5-7863BFB88F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
   </bookViews>
   <sheets>
     <sheet name="big " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
   <si>
     <t>n1</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>SGD</t>
   </si>
 </sst>
 </file>
@@ -140,16 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -468,12 +468,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F69E8AC-E466-4E78-91B8-AB2DC1C84E4C}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="Q15" sqref="Q1:R15"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,10 +588,10 @@
         <v>0.87</v>
       </c>
       <c r="O2">
-        <v>0.51</v>
+        <v>0.92</v>
       </c>
       <c r="P2">
-        <v>0.73</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -638,10 +638,10 @@
         <v>0.85</v>
       </c>
       <c r="O3">
-        <v>0.51</v>
+        <v>0.89</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -687,15 +687,15 @@
       <c r="N4" s="1">
         <v>0.82</v>
       </c>
-      <c r="O4" s="4">
-        <v>0.51</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="O4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -741,10 +741,10 @@
         <v>0.87</v>
       </c>
       <c r="O5">
-        <v>0.51</v>
+        <v>0.91</v>
       </c>
       <c r="P5">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -791,10 +791,10 @@
         <v>0.85</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="P6">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -841,10 +841,10 @@
         <v>0.83</v>
       </c>
       <c r="O7">
-        <v>0.46</v>
+        <v>0.84</v>
       </c>
       <c r="P7">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -891,10 +891,10 @@
         <v>0.87</v>
       </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="P8">
-        <v>0.76</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -941,10 +941,10 @@
         <v>0.87</v>
       </c>
       <c r="O9">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="P9">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -991,10 +991,10 @@
         <v>0.88</v>
       </c>
       <c r="O10">
-        <v>0.49</v>
+        <v>0.93</v>
       </c>
       <c r="P10">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1041,10 +1041,10 @@
         <v>0.85</v>
       </c>
       <c r="O11">
-        <v>0.49</v>
+        <v>0.87</v>
       </c>
       <c r="P11">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1088,13 +1088,13 @@
         <v>16</v>
       </c>
       <c r="N12" s="1">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="O12">
-        <v>0.86</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="P12">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1141,10 +1141,10 @@
         <v>0.85</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="P13">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1191,10 +1191,10 @@
         <v>0.79</v>
       </c>
       <c r="O14">
-        <v>0.49</v>
+        <v>0.87</v>
       </c>
       <c r="P14">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1241,57 +1241,266 @@
         <v>0.86</v>
       </c>
       <c r="O15">
+        <v>0.89</v>
+      </c>
+      <c r="P15">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>256</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>90</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>256</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="1">
+        <v>90</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.5</v>
       </c>
-      <c r="P15">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="N16" s="3"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="1"/>
+      <c r="I17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="O18" s="3"/>
+      <c r="A18" s="1">
+        <v>256</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="1">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1">
+        <v>90</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.91</v>
+      </c>
       <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>256</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1">
+        <v>100</v>
+      </c>
+      <c r="G19" s="1">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>256</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1">
+        <v>100</v>
+      </c>
+      <c r="G20" s="1">
+        <v>90</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1303,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467D4B1-B23C-4093-87EF-8645A45C5424}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -1419,10 +1628,10 @@
         <v>0.78</v>
       </c>
       <c r="O2">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -1469,10 +1678,10 @@
         <v>0.92</v>
       </c>
       <c r="O3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.53</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -1519,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1569,10 +1778,10 @@
         <v>0.85</v>
       </c>
       <c r="O5">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1619,10 +1828,10 @@
         <v>0.78</v>
       </c>
       <c r="O6">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -1669,10 +1878,10 @@
         <v>0.78</v>
       </c>
       <c r="O7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.57999999999999996</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -1719,10 +1928,10 @@
         <v>0.85</v>
       </c>
       <c r="O8">
-        <v>0.81</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1769,10 +1978,10 @@
         <v>0.78</v>
       </c>
       <c r="O9">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -1819,10 +2028,10 @@
         <v>0.85</v>
       </c>
       <c r="O10">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1869,10 +2078,10 @@
         <v>0.78</v>
       </c>
       <c r="O11">
-        <v>0.35</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1919,10 +2128,10 @@
         <v>0.92</v>
       </c>
       <c r="O12">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1966,13 +2175,13 @@
         <v>16</v>
       </c>
       <c r="N13">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="O13">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>82</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2019,10 +2228,10 @@
         <v>0.85</v>
       </c>
       <c r="O14">
-        <v>0.28000000000000003</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0.37</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -2069,10 +2278,10 @@
         <v>0.78</v>
       </c>
       <c r="O15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0.57999999999999996</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Munca_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660692EA-AFF9-4778-ADB5-7863BFB88F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407D0E2-84DE-4BEF-81F0-C750CDE898B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
   </bookViews>
@@ -471,9 +471,9 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,10 +558,10 @@
         <v>1E-4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
         <v>40</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>350</v>
+        <v>512</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
@@ -608,7 +608,7 @@
         <v>1E-4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1">
         <v>50</v>
@@ -658,7 +658,7 @@
         <v>1E-4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
         <v>50</v>
@@ -711,7 +711,7 @@
         <v>1E-4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1">
         <v>50</v>
@@ -761,7 +761,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>50</v>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Munca_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A407D0E2-84DE-4BEF-81F0-C750CDE898B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3170FAD-2B0C-407F-899C-B557C04A560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
   <si>
     <t>n1</t>
   </si>
@@ -108,6 +108,18 @@
   </si>
   <si>
     <t>SGD</t>
+  </si>
+  <si>
+    <t>test_acc2</t>
+  </si>
+  <si>
+    <t>auc2</t>
+  </si>
+  <si>
+    <t>f1_2</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -471,9 +483,9 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,9 +552,15 @@
       <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -564,7 +582,7 @@
         <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1">
         <v>0.2</v>
@@ -592,6 +610,15 @@
       </c>
       <c r="P2">
         <v>0.91</v>
+      </c>
+      <c r="Q2">
+        <v>0.83</v>
+      </c>
+      <c r="R2">
+        <v>0.87</v>
+      </c>
+      <c r="S2">
+        <v>0.89</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -611,10 +638,10 @@
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H3" s="1">
         <v>0.2</v>
@@ -642,6 +669,15 @@
       </c>
       <c r="P3">
         <v>0.9</v>
+      </c>
+      <c r="Q3">
+        <v>0.86</v>
+      </c>
+      <c r="R3">
+        <v>0.89</v>
+      </c>
+      <c r="S3">
+        <v>0.91</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -661,10 +697,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H4" s="1">
         <v>0.2</v>
@@ -693,7 +729,9 @@
       <c r="P4" s="3">
         <v>0.87</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
     </row>
@@ -714,10 +752,10 @@
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1">
         <v>0.2</v>
@@ -745,6 +783,15 @@
       </c>
       <c r="P5">
         <v>0.91</v>
+      </c>
+      <c r="Q5">
+        <v>0.82</v>
+      </c>
+      <c r="R5">
+        <v>0.86</v>
+      </c>
+      <c r="S5">
+        <v>0.89</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -764,10 +811,10 @@
         <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H6" s="1">
         <v>0.2</v>
@@ -795,6 +842,15 @@
       </c>
       <c r="P6">
         <v>0.9</v>
+      </c>
+      <c r="Q6">
+        <v>0.77</v>
+      </c>
+      <c r="R6">
+        <v>0.79</v>
+      </c>
+      <c r="S6">
+        <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -814,10 +870,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G7" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H7" s="1">
         <v>0.2</v>
@@ -845,6 +901,15 @@
       </c>
       <c r="P7">
         <v>0.88</v>
+      </c>
+      <c r="Q7">
+        <v>0.79</v>
+      </c>
+      <c r="R7">
+        <v>0.81</v>
+      </c>
+      <c r="S7">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -867,7 +932,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H8" s="1">
         <v>0.2</v>
@@ -895,6 +960,15 @@
       </c>
       <c r="P8">
         <v>0.91</v>
+      </c>
+      <c r="Q8">
+        <v>0.83</v>
+      </c>
+      <c r="R8">
+        <v>0.84</v>
+      </c>
+      <c r="S8">
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -914,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
         <v>0.2</v>
@@ -946,10 +1020,19 @@
       <c r="P9">
         <v>0.91</v>
       </c>
+      <c r="Q9">
+        <v>0.84</v>
+      </c>
+      <c r="R9">
+        <v>0.84</v>
+      </c>
+      <c r="S9">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
@@ -961,13 +1044,13 @@
         <v>1E-4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G10" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1">
         <v>0.5</v>
@@ -996,10 +1079,19 @@
       <c r="P10">
         <v>0.92</v>
       </c>
+      <c r="Q10">
+        <v>0.83</v>
+      </c>
+      <c r="R10">
+        <v>0.92</v>
+      </c>
+      <c r="S10">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
@@ -1011,13 +1103,13 @@
         <v>1E-4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G11" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>0.2</v>
@@ -1046,10 +1138,19 @@
       <c r="P11">
         <v>0.9</v>
       </c>
+      <c r="Q11">
+        <v>0.82</v>
+      </c>
+      <c r="R11">
+        <v>0.81</v>
+      </c>
+      <c r="S11">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1061,13 +1162,13 @@
         <v>1E-4</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G12" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
         <v>0.2</v>
@@ -1096,10 +1197,19 @@
       <c r="P12">
         <v>0.9</v>
       </c>
+      <c r="Q12">
+        <v>0.81</v>
+      </c>
+      <c r="R12">
+        <v>0.93</v>
+      </c>
+      <c r="S12">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
@@ -1111,13 +1221,13 @@
         <v>1E-4</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H13" s="1">
         <v>0.2</v>
@@ -1146,10 +1256,19 @@
       <c r="P13">
         <v>0.9</v>
       </c>
+      <c r="Q13">
+        <v>0.82</v>
+      </c>
+      <c r="R13">
+        <v>0.86</v>
+      </c>
+      <c r="S13">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1161,13 +1280,13 @@
         <v>1E-4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G14" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1">
         <v>0.2</v>
@@ -1196,10 +1315,19 @@
       <c r="P14">
         <v>0.85</v>
       </c>
+      <c r="Q14">
+        <v>0.77</v>
+      </c>
+      <c r="R14">
+        <v>0.87</v>
+      </c>
+      <c r="S14">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>19</v>
@@ -1211,13 +1339,13 @@
         <v>1E-4</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G15" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
         <v>0.2</v>
@@ -1246,10 +1374,19 @@
       <c r="P15">
         <v>0.91</v>
       </c>
+      <c r="Q15">
+        <v>0.85</v>
+      </c>
+      <c r="R15">
+        <v>0.86</v>
+      </c>
+      <c r="S15">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -1261,10 +1398,10 @@
         <v>1E-4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G16" s="1">
         <v>90</v>
@@ -1299,7 +1436,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>19</v>
@@ -1311,10 +1448,10 @@
         <v>1E-4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1">
         <v>90</v>
@@ -1349,7 +1486,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -1361,7 +1498,7 @@
         <v>1E-4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -1373,7 +1510,7 @@
         <v>0.5</v>
       </c>
       <c r="I18" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="1">
         <v>0.2</v>
@@ -1400,7 +1537,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
@@ -1450,7 +1587,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>

--- a/Teste.xlsx
+++ b/Teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai intro\Munca_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3170FAD-2B0C-407F-899C-B557C04A560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8301645-3E64-4367-B72E-005AA4C8189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
+    <workbookView xWindow="5760" yWindow="1068" windowWidth="17280" windowHeight="8964" xr2:uid="{0A751847-8A50-4744-A578-69ECBCC80F13}"/>
   </bookViews>
   <sheets>
     <sheet name="big " sheetId="1" r:id="rId1"/>
@@ -482,10 +482,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F69E8AC-E466-4E78-91B8-AB2DC1C84E4C}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1433,8 +1433,17 @@
       <c r="P16" s="1">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q16" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>64</v>
       </c>
@@ -1483,8 +1492,17 @@
       <c r="P17" s="1">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q17" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>64</v>
       </c>
@@ -1533,9 +1551,17 @@
       <c r="P18" s="1">
         <v>0.91</v>
       </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q18" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>64</v>
       </c>
@@ -1584,8 +1610,17 @@
       <c r="P19" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q19" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>128</v>
       </c>
@@ -1634,8 +1669,17 @@
       <c r="P20" s="1">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q20" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="H21" s="1"/>
     </row>
